--- a/2T1617-ATTENDACE/16172-LAB SP-ITE3 2B-S312.xlsx
+++ b/2T1617-ATTENDACE/16172-LAB SP-ITE3 2B-S312.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\16172-Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard Reyes\Desktop\GIT\FileOrg\2T1617-ATTENDACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LAB" sheetId="1" r:id="rId1"/>
     <sheet name="LEC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="36">
   <si>
     <t>TN</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>2.9</t>
+  </si>
+  <si>
+    <t>2.15</t>
   </si>
 </sst>
 </file>
@@ -582,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1183,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1223,7 +1226,9 @@
         <v>34</v>
       </c>
       <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="K1" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
@@ -1264,6 +1269,9 @@
         <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1373,6 +1381,9 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="K13" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
@@ -1381,6 +1392,9 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="K14" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
@@ -1398,13 +1412,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1415,7 +1429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -1425,7 +1439,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1439,7 +1453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1455,13 +1469,16 @@
       <c r="I21" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -1477,18 +1494,18 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -1505,7 +1522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -1516,7 +1533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -1527,7 +1544,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -1537,13 +1554,13 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>27</v>
       </c>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -1562,8 +1579,11 @@
       <c r="I31" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K31" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -1580,6 +1600,9 @@
         <v>29</v>
       </c>
       <c r="I32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>29</v>
       </c>
     </row>
